--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H2">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I2">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J2">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.18316</v>
+        <v>0.310643</v>
       </c>
       <c r="N2">
-        <v>0.54948</v>
+        <v>0.931929</v>
       </c>
       <c r="O2">
-        <v>0.07387220463520254</v>
+        <v>0.1259996917369272</v>
       </c>
       <c r="P2">
-        <v>0.07387220463520254</v>
+        <v>0.1259996917369272</v>
       </c>
       <c r="Q2">
-        <v>0.5296079947466666</v>
+        <v>0.167264170135</v>
       </c>
       <c r="R2">
-        <v>4.76647195272</v>
+        <v>1.505377531215</v>
       </c>
       <c r="S2">
-        <v>0.008965060253685106</v>
+        <v>0.00424821568931712</v>
       </c>
       <c r="T2">
-        <v>0.008965060253685106</v>
+        <v>0.00424821568931712</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H3">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I3">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J3">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.080506</v>
       </c>
       <c r="O3">
-        <v>0.5485840690237529</v>
+        <v>0.5516970693375588</v>
       </c>
       <c r="P3">
-        <v>0.548584069023753</v>
+        <v>0.5516970693375588</v>
       </c>
       <c r="Q3">
-        <v>3.932934047120444</v>
+        <v>0.7323760177233333</v>
       </c>
       <c r="R3">
-        <v>35.396406424084</v>
+        <v>6.59138415951</v>
       </c>
       <c r="S3">
-        <v>0.06657563906879885</v>
+        <v>0.01860106253754593</v>
       </c>
       <c r="T3">
-        <v>0.06657563906879886</v>
+        <v>0.01860106253754593</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H4">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I4">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J4">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9360883333333335</v>
+        <v>0.794615</v>
       </c>
       <c r="N4">
-        <v>2.808265</v>
+        <v>2.383845</v>
       </c>
       <c r="O4">
-        <v>0.3775437263410444</v>
+        <v>0.3223032389255139</v>
       </c>
       <c r="P4">
-        <v>0.3775437263410445</v>
+        <v>0.3223032389255139</v>
       </c>
       <c r="Q4">
-        <v>2.706703784245556</v>
+        <v>0.427856473675</v>
       </c>
       <c r="R4">
-        <v>24.36033405821</v>
+        <v>3.850708263075</v>
       </c>
       <c r="S4">
-        <v>0.04581834631527082</v>
+        <v>0.01086680179487941</v>
       </c>
       <c r="T4">
-        <v>0.04581834631527083</v>
+        <v>0.01086680179487941</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>36.121289</v>
       </c>
       <c r="I5">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J5">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.18316</v>
+        <v>0.310643</v>
       </c>
       <c r="N5">
-        <v>0.54948</v>
+        <v>0.931929</v>
       </c>
       <c r="O5">
-        <v>0.07387220463520254</v>
+        <v>0.1259996917369272</v>
       </c>
       <c r="P5">
-        <v>0.07387220463520254</v>
+        <v>0.1259996917369272</v>
       </c>
       <c r="Q5">
-        <v>2.205325097746667</v>
+        <v>3.740275192942334</v>
       </c>
       <c r="R5">
-        <v>19.84792587972</v>
+        <v>33.662476736481</v>
       </c>
       <c r="S5">
-        <v>0.03733114412239959</v>
+        <v>0.09499641043384681</v>
       </c>
       <c r="T5">
-        <v>0.03733114412239959</v>
+        <v>0.0949964104338468</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>36.121289</v>
       </c>
       <c r="I6">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J6">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.080506</v>
       </c>
       <c r="O6">
-        <v>0.5485840690237529</v>
+        <v>0.5516970693375588</v>
       </c>
       <c r="P6">
-        <v>0.548584069023753</v>
+        <v>0.5516970693375588</v>
       </c>
       <c r="Q6">
         <v>16.37701516580378</v>
@@ -818,10 +818,10 @@
         <v>147.393136492234</v>
       </c>
       <c r="S6">
-        <v>0.2772256634969722</v>
+        <v>0.4159473766282351</v>
       </c>
       <c r="T6">
-        <v>0.2772256634969723</v>
+        <v>0.415947376628235</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>36.121289</v>
       </c>
       <c r="I7">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J7">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9360883333333335</v>
+        <v>0.794615</v>
       </c>
       <c r="N7">
-        <v>2.808265</v>
+        <v>2.383845</v>
       </c>
       <c r="O7">
-        <v>0.3775437263410444</v>
+        <v>0.3223032389255139</v>
       </c>
       <c r="P7">
-        <v>0.3775437263410445</v>
+        <v>0.3223032389255139</v>
       </c>
       <c r="Q7">
-        <v>11.27090573928722</v>
+        <v>9.567506019578333</v>
       </c>
       <c r="R7">
-        <v>101.438151653585</v>
+        <v>86.10755417620501</v>
       </c>
       <c r="S7">
-        <v>0.1907908303284752</v>
+        <v>0.2429978228284274</v>
       </c>
       <c r="T7">
-        <v>0.1907908303284752</v>
+        <v>0.2429978228284274</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H8">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I8">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J8">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.18316</v>
+        <v>0.310643</v>
       </c>
       <c r="N8">
-        <v>0.54948</v>
+        <v>0.931929</v>
       </c>
       <c r="O8">
-        <v>0.07387220463520254</v>
+        <v>0.1259996917369272</v>
       </c>
       <c r="P8">
-        <v>0.07387220463520254</v>
+        <v>0.1259996917369272</v>
       </c>
       <c r="Q8">
-        <v>1.62904317284</v>
+        <v>1.053421995038333</v>
       </c>
       <c r="R8">
-        <v>14.66138855556</v>
+        <v>9.480797955344999</v>
       </c>
       <c r="S8">
-        <v>0.02757600025911784</v>
+        <v>0.02675506561376328</v>
       </c>
       <c r="T8">
-        <v>0.02757600025911784</v>
+        <v>0.02675506561376327</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H9">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I9">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J9">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.080506</v>
       </c>
       <c r="O9">
-        <v>0.5485840690237529</v>
+        <v>0.5516970693375588</v>
       </c>
       <c r="P9">
-        <v>0.548584069023753</v>
+        <v>0.5516970693375588</v>
       </c>
       <c r="Q9">
-        <v>12.09747477803133</v>
+        <v>4.61247023248111</v>
       </c>
       <c r="R9">
-        <v>108.877273002282</v>
+        <v>41.51223209233</v>
       </c>
       <c r="S9">
-        <v>0.2047827664579819</v>
+        <v>0.1171486301717778</v>
       </c>
       <c r="T9">
-        <v>0.2047827664579819</v>
+        <v>0.1171486301717778</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H10">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I10">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J10">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9360883333333335</v>
+        <v>0.794615</v>
       </c>
       <c r="N10">
-        <v>2.808265</v>
+        <v>2.383845</v>
       </c>
       <c r="O10">
-        <v>0.3775437263410444</v>
+        <v>0.3223032389255139</v>
       </c>
       <c r="P10">
-        <v>0.3775437263410445</v>
+        <v>0.3223032389255139</v>
       </c>
       <c r="Q10">
-        <v>8.325662309411667</v>
+        <v>2.694620250858333</v>
       </c>
       <c r="R10">
-        <v>74.93096078470501</v>
+        <v>24.251582257725</v>
       </c>
       <c r="S10">
-        <v>0.1409345496972985</v>
+        <v>0.06843861430220706</v>
       </c>
       <c r="T10">
-        <v>0.1409345496972985</v>
+        <v>0.06843861430220705</v>
       </c>
     </row>
   </sheetData>
